--- a/03.crawler/03.eBay/file/5.collate/crawler_1.xlsx
+++ b/03.crawler/03.eBay/file/5.collate/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Market</t>
+          <t>eBay Market</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -606,65 +606,55 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Reference OE Part Number</t>
+          <t>Superseded Part Number</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Seller Notes</t>
+          <t>Surface Finish</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Superseded Part Number</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Surface Finish</t>
+          <t>UPC</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Voltage</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>UPC</t>
+          <t>Json_Src</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Voltage</t>
+          <t>Description Url</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Json_Src</t>
+          <t>Json_Quantity</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Description Url</t>
+          <t>Json_Price</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Json_Quantity</t>
+          <t>Json_Specific</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Price</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Specific</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Json_Compatibility</t>
         </is>
@@ -676,23 +666,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>255410646663</t>
+          <t>232315264904</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A/C Compressor Fits 1989-1997 Toyota Corolla 1.6L 1.8L</t>
+          <t>AC A/C Compressor For 2004 2005 2006 Mitsubishi Outlander Lancer CO 10845AC 2.4L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US $97.82/ea</t>
+          <t>US $100.68/ea</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/255410646663?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/232315264904?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -718,27 +708,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17 sold</t>
+          <t>89 sold</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Buy 1 for $97.82</t>
+          <t>Buy 1 for $100.68</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Buy 2 for $95.86 each one</t>
+          <t>Buy 2 for $98.67 each one</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Buy 3 for $93.91 each one</t>
+          <t>Buy 3 for $97.66 each one</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Buy 4 for $91.95 each one</t>
+          <t>Buy 4 for $95.65 each one</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -746,11 +736,15 @@
           <t>SCITOO</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10PA15E</t>
+          <t>MSC105</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -766,7 +760,7 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>CO 11099C</t>
+          <t>CO 10845AC</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -776,7 +770,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>CB130DA984S11</t>
+          <t>CB104TE056S09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -788,80 +782,74 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Pag 46</t>
+          <t>PAG 46</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1520961,1521991,10309140,10309141,10344181,1011099</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
+          <t>MN185237,MR513148, 77495, 6512196, 6512355</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>78495, 10350931, 1010845, 638912, 77494</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Painted</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1111099,1211099,618397,4471003430,4711169,67318,68318</t>
+          <t>A/C Compressor</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Painted</t>
+          <t>611040243564</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>A/C Compressor</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Does not apply</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/404AAOSwR5VisXTT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/6hEAAOSw4MlisXTU/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/o60AAOSwhtlisXTU/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/9g8AAOSw63lisXTV/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/pWwAAOSw59lisXTV/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>12V</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/232315264904?t=1728370349000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/QzUAAOSwQTxisYmS/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/Rq0AAOSwhhZisYmT/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ZKAAAOSwKr5isYmT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/ptUAAOSwWedisYmU/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/xEYAAOSwyFFisYmU/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/xEkAAOSwyFFisYmV/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/R-gAAOSwANFisYmW/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/3nsAAOSwHrVisYmW/s-l500.jpg", "8": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "89 sold"}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/255410646663?t=1729598763000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $100.68", "1": "Buy 2 for $98.67 each one", "2": "Buy 3 for $97.66 each one", "3": "Buy 4 for $95.65 each one"}</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "17 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040243564"}, "4": {"Manufacturer Part Number": "CB104TE056S09"}, "5": {"Interchange Part Number": "CO 10845AC"}, "6": {"Other Part Number": "MN185237,MR513148, 77495, 6512196, 6512355"}, "7": {"Superseded Part Number": "78495, 10350931, 1010845, 638912, 77494"}, "8": {"Compressor type": "MSC105"}, "9": {"Voltage": "12V"}, "10": {"Fitment Type": "Direct Replacement"}, "11": {"Type": "A/C Compressor"}, "12": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "13": {"Oil Type": "PAG 46"}, "14": {"Pulley Groove Quantity": "6"}, "15": {"Clutch Diameter(mm)": "95"}, "16": {"Surface Finish": "Painted"}}</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $97.82", "1": "Buy 2 for $95.86 each one", "2": "Buy 3 for $93.91 each one", "3": "Buy 4 for $91.95 each one"}</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB130DA984S11"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 11099C"}, "6": {"Other Part Number": "1520961,1521991,10309140,10309141,10344181,1011099"}, "7": {"Superseded Part Number": "1111099,1211099,618397,4471003430,4711169,67318,68318"}, "8": {"Pulley Diameter": "149"}, "9": {"Pulley Groove Quantity": "4"}, "10": {"Compressor type": "10PA15E"}, "11": {"Voltage": "12V"}, "12": {"Fitment Type": "Direct Replacement"}, "13": {"Type": "A/C Compressor"}, "14": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "15": {"Surface Finish": "Painted"}, "16": {"Oil Type": "Pag 46"}}</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "255410646663", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -871,23 +859,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>335270737835</t>
+          <t>335513085831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AC A/C Compressor for Chrysler 300 Dodge Challenger Charger 5.7L 2011-2013</t>
+          <t>AC A/C Compressor Fits 06-10 Ford Explorer Mercury Mountaineer Lincoln Town 4.6L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>US $140.97/ea</t>
+          <t>US $111.21/ea</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335270737835?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/335513085831?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -913,27 +901,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10 sold</t>
+          <t>4 sold</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Buy 1 for $140.97</t>
+          <t>Buy 1 for $111.21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Buy 2 for $138.15 each one</t>
+          <t>Buy 2 for $108.99 each one</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Buy 3 for $136.74 each one</t>
+          <t>Buy 3 for $107.87 each one</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Buy 4 for $133.92 each one</t>
+          <t>Buy 4 for $105.65 each one</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -942,12 +930,12 @@
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>10SRE18C</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>FS18</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
@@ -961,13 +949,17 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>CO 30014C,68028917AB, 68028917AC, 68028917AD</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+          <t>CO 10906C, 67185, 68185, 0610204</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1 x Air Conditioner Compressor</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CB175SCTU970S14</t>
+          <t>SC17519TU409ST</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -976,71 +968,65 @@
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>68028917AE, 68028917AB,98314, 97314</t>
-        </is>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>8L2Z19703C, 9L2Z19V703E, YCC395</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>R8028917AB, RL028917AB, RL028917AC,68202994AA</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>A/C Compressor</t>
-        </is>
-      </c>
+          <t>Compressor &amp; Clutch Assembly</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Does not apply</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>Does not apply</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/VxcAAOSweQhmrEi1/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/DEMAAOSwILBmrEi4/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/DXEAAOSweyhmrEi6/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Cy8AAOSwnZFmrEi8/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/lvQAAOSwD-lmrEi~/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/xzQAAOSw1mVmrEjB/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>12V</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/335513085831?t=1731988649000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/x-UAAOSwNi1l2ABO/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/-CIAAOSwNXZl2ABR/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/tlIAAOSwa1Rl2ABU/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Z2gAAOSweHll2ABX/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/G4EAAOSw6HVl2ABc/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/VV4AAOSwqEZl2ABf/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/PUgAAOSwAuhl2ABj/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "4 sold"}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/335270737835?t=1728370358000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $111.21", "1": "Buy 2 for $108.99 each one", "2": "Buy 3 for $107.87 each one", "3": "Buy 4 for $105.65 each one"}</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "10 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "SC17519TU409ST"}, "4": {"UPC": "Does not apply"}, "5": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "6": {"Type": "Compressor &amp; Clutch Assembly"}, "7": {"Fitment Type": "Direct Replacement"}, "8": {"Superseded Part Number": "8L2Z19703C, 9L2Z19V703E, YCC395"}, "9": {"Interchange Part Number": "CO 10906C, 67185, 68185, 0610204"}, "10": {"Pulley Groove Quantity": "6"}, "11": {"Compressor Type": "FS18"}, "12": {"Pulley Diameter": "120"}}</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $140.97", "1": "Buy 2 for $138.15 each one", "2": "Buy 3 for $136.74 each one", "3": "Buy 4 for $133.92 each one"}</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU970S14"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 30014C,68028917AB, 68028917AC, 68028917AD"}, "6": {"Superseded Part Number": "R8028917AB, RL028917AB, RL028917AC,68202994AA"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"Voltage": "12V"}, "10": {"Compressor type": "10SRE18C"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"OE/OEM Part Number": "68028917AE, 68028917AB,98314, 97314"}}</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335270737835", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "335513085831", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1050,23 +1036,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>232315264904</t>
+          <t>255628697516</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AC A/C Compressor For 2004 2005 2006 Mitsubishi Outlander Lancer CO 10845AC 2.4L</t>
+          <t>Fits 2004-2006 2005 Scion xA xB 1.5L A/C AC Compressor w/Clutch 97376</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>US $100.68/ea</t>
+          <t>US $125.49/ea</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/232315264904?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/255628697516?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1092,27 +1078,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>87 sold</t>
+          <t>39 sold</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Buy 1 for $100.68</t>
+          <t>Buy 1 for $125.49</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Buy 2 for $98.67 each one</t>
+          <t>Buy 2 for $122.98 each one</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Buy 3 for $97.66 each one</t>
+          <t>Buy 3 for $120.47 each one</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Buy 4 for $95.65 each one</t>
+          <t>Buy 4 for $117.96 each one</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1120,15 +1106,11 @@
           <t>SCITOO</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MSC105</t>
+          <t>5SER09</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1144,7 +1126,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>CO 10845AC</t>
+          <t>CO 11034C,10361451,1011034,4711606,97376</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1154,7 +1136,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CB104TE056S09</t>
+          <t>CB104TE093S19</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1164,78 +1146,68 @@
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>PAG 46</t>
-        </is>
-      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>MN185237,MR513148, 77495, 6512196, 6512355</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+          <t>2021607,2021607R,2021860,140163NC,140692,8831052250</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>78495, 10350931, 1010845, 638912, 77494</t>
+          <t>A/C Compressor</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Painted</t>
+          <t>688209047899</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>A/C Compressor</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>611040243564</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/ewsAAOSw75hj9YAm/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/0FUAAOSwID1j9YAn/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/aIoAAOSw2l5j9YAo/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/m74AAOSwT6lj9YAp/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/4x0AAOSwpEtj9YAq/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/CxgAAOSwH7lj9YAr/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/A40AAOSwv9Rj9YAt/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>12V</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/255628697516?t=1732015711000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/404AAOSwR5VisXTT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/6hEAAOSw4MlisXTU/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/o60AAOSwhtlisXTU/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/9g8AAOSw63lisXTV/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/pWwAAOSw59lisXTV/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "39 sold"}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/232315264904?t=1728370349000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $125.49", "1": "Buy 2 for $122.98 each one", "2": "Buy 3 for $120.47 each one", "3": "Buy 4 for $117.96 each one"}</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "87 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209047899"}, "4": {"Manufacturer Part Number": "CB104TE093S19"}, "5": {"Interchange Part Number": "CO 11034C,10361451,1011034,4711606,97376"}, "6": {"Other Part Number": "2021607,2021607R,2021860,140163NC,140692,8831052250"}, "7": {"Compressor type": "5SER09"}, "8": {"Voltage": "12V"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "A/C Compressor"}, "11": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "12": {"Pulley Groove Quantity": "4"}, "13": {"Pulley Diameter": "110"}}</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $100.68", "1": "Buy 2 for $98.67 each one", "2": "Buy 3 for $97.66 each one", "3": "Buy 4 for $95.65 each one"}</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040243564"}, "4": {"Manufacturer Part Number": "CB104TE056S09"}, "5": {"Interchange Part Number": "CO 10845AC"}, "6": {"Other Part Number": "MN185237,MR513148, 77495, 6512196, 6512355"}, "7": {"Superseded Part Number": "78495, 10350931, 1010845, 638912, 77494"}, "8": {"Compressor type": "MSC105"}, "9": {"Voltage": "12V"}, "10": {"Fitment Type": "Direct Replacement"}, "11": {"Type": "A/C Compressor"}, "12": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "13": {"Oil Type": "PAG 46"}, "14": {"Pulley Groove Quantity": "6"}, "15": {"Clutch Diameter(mm)": "95"}, "16": {"Surface Finish": "Painted"}}</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "232315264904", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1245,23 +1217,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>235748987359</t>
+          <t>235461387733</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A/C Compressor Fits 2009-2011 2012 Honda Accord 12-15 Crosstour 2.4L CO 11224C</t>
+          <t>AC A/C Compressor For 2003-2009 Chevrolet Trailblazer GMC Envoy 4.2L CO 4910AC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>US $103.72/ea</t>
+          <t>US $115.79/ea</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235748987359?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/235461387733?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1287,27 +1259,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3 sold</t>
+          <t>39 sold</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Buy 1 for $103.72</t>
+          <t>Buy 1 for $115.79</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Buy 2 for $101.65 each one</t>
+          <t>Buy 2 for $113.47 each one</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Buy 3 for $100.61 each one</t>
+          <t>Buy 3 for $112.32 each one</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Buy 4 for $98.53 each one</t>
+          <t>Buy 4 for $110.00 each one</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1317,31 +1289,27 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>10SR15C</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Direct Replacement</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>CO 11224C,38810R40A01, 38810-R40-A01</t>
+          <t>CO4910AC,25825339, 25825341, 6511418, 77561, 254427</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>CB174TE847S05</t>
+          <t>CB104TE010S11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1349,72 +1317,78 @@
           <t>1 Year</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Aluminum Alloy</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
           <t>PAG 46</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>10344880, 10349190, 10349191, 1099655, 1099686, 1099716,</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>447260-6960</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Compressor &amp; Clutch Assembly</t>
-        </is>
-      </c>
+          <t>A/C Compressor</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>611040278818</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Does not apply</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr"/>
+          <t>{"0": "https://i.ebayimg.com/images/g/sakAAOSwro9l53Xt/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/23cAAOSwbVFl53Xu/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/GP4AAOSw3ctl53Xv/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/jQgAAOSwqtdl53Xw/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/BzAAAOSw1bVl53Xx/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/hEUAAOSwTSJl53Xy/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/n-oAAOSw005l53X0/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/235461387733?t=1733392923000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+        </is>
+      </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/qRIAAOSwapJm6jDx/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/TIEAAOSw39hm6jD0/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/VpkAAOSwy~dm6jD3/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Wq0AAOSwz7Bm6jD6/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/oYcAAOSwN3hm6jD8/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/WPsAAOSwzqpm6jD~/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "39 sold"}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/235748987359?t=1728980195000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $115.79", "1": "Buy 2 for $113.47 each one", "2": "Buy 3 for $112.32 each one", "3": "Buy 4 for $110.00 each one"}</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "3 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040278818"}, "4": {"Manufacturer Part Number": "CB104TE010S11"}, "5": {"Interchange Part Number": "CO4910AC,25825339, 25825341, 6511418, 77561, 254427"}, "6": {"Other Part Number": "10344880, 10349190, 10349191, 1099655, 1099686, 1099716,"}, "7": {"Grooves": "6"}, "8": {"Pulley Diameter (mm)": "106"}, "9": {"Oil Type": "PAG 46"}, "10": {"Type": "A/C Compressor"}, "11": {"Pulley Groove Quantity": "6"}, "12": {"Pulley Diameter": "106"}, "13": {"Material": "Aluminum Alloy"}}</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $103.72", "1": "Buy 2 for $101.65 each one", "2": "Buy 3 for $100.61 each one", "3": "Buy 4 for $98.53 each one"}</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "CB174TE847S05"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 11224C,38810R40A01, 38810-R40-A01"}, "6": {"Superseded Part Number": "447260-6960"}, "7": {"Oil Type": "PAG 46"}, "8": {"Compressor type": "10SR15C"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "Compressor &amp; Clutch Assembly"}, "11": {"Pulley Groove Quantity": "7"}, "12": {"Pulley Diameter": "130"}}</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "235748987359", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 5, "market_place_id": "EBAY-US", "item_id": "235461387733", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1424,23 +1398,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>252900220689</t>
+          <t>334707355204</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AC A/C Compressor For 98-06 Mercedes- Benz For Dodge Chrysler Models CO 105111C</t>
+          <t>A/C AC Compressor FOR Toyota Camry For Solara 1988-2000 2001 CO 10624GLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>US $112.56/ea</t>
+          <t>US $101.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/252900220689?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/334707355204?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1466,29 +1440,13 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>188 sold</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Buy 1 for $112.56</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Buy 2 for $110.31 each one</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Buy 3 for $109.18 each one</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Buy 4 for $106.93 each one</t>
-        </is>
-      </c>
+          <t>14 sold</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>SCITOO</t>
@@ -1498,7 +1456,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>SD7SB16C</t>
+          <t>10PA17C</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1506,21 +1464,25 @@
           <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Direct Replacement</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>CO 105111C</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+          <t>CO 10624GLC, 618398, 5511537, 2011240</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1 x Air Conditioner Compressor</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>CB104TE023S24</t>
+          <t>CB104TE096S21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1528,72 +1490,70 @@
           <t>1 Year</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Aluminum Alloy</t>
-        </is>
-      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>5097010AA,00023-02011</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
+          <t>TEM274127,TEM254127,4710146,4711146,4711217,8832033100,618398</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>CS20113, 6511537,2011240,58398,274127</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2369,0610045,21635,21635N,6001188,6001250,6021518,C1247</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr"/>
+          <t>A/C Compressor</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>688209048018</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Compressor &amp; Clutch Assembly</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>611040241584</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>{"0": "https://i.ebayimg.com/images/g/OIgAAOSwtrhmQb~K/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/-uEAAOSwtZ9mQb~N/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/JGUAAOSw-R1mQb~P/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/4mIAAOSwcy9mQb~S/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/nR4AAOSwF4NmQb~V/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/7i4AAOSwyy9mQb~X/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/334707355204?t=1733392900000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+        </is>
+      </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/mbcAAOSwK-ZkwjoE/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/GscAAOSwSRNkwjoF/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/cNYAAOSw3YRkwjoG/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Gh8AAOSwZl5kwjoH/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/lY0AAOSwTK9kwjoI/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/EEgAAOSwKfFkwjoJ/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/gKcAAOSwU-pkwjoJ/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "14 sold"}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/252900220689?t=1728374291000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "188 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209048018"}, "4": {"Manufacturer Part Number": "CB104TE096S21"}, "5": {"Interchange Part Number": "CO 10624GLC, 618398, 5511537, 2011240"}, "6": {"Other Part Number": "TEM274127,TEM254127,4710146,4711146,4711217,8832033100,618398"}, "7": {"Superseded Part Number": "CS20113, 6511537,2011240,58398,274127"}, "8": {"Pulley Groove Quantity": "5"}, "9": {"Compressor type": "10PA17C"}, "10": {"Voltage": "12V"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"Type": "A/C Compressor"}, "13": {"Kit Parts Included": "1 x Air Conditioner Compressor"}}</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $112.56", "1": "Buy 2 for $110.31 each one", "2": "Buy 3 for $109.18 each one", "3": "Buy 4 for $106.93 each one"}</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040241584"}, "4": {"Manufacturer Part Number": "CB104TE023S24"}, "5": {"Interchange Part Number": "CO 105111C"}, "6": {"Other Part Number": "5097010AA,00023-02011"}, "7": {"Superseded Part Number": "2369,0610045,21635,21635N,6001188,6001250,6021518,C1247"}, "8": {"Grooves": "6"}, "9": {"Pulley Diameter": "119"}, "10": {"Compressor type": "SD7SB16C"}, "11": {"Type": "Compressor &amp; Clutch Assembly"}, "12": {"Material": "Aluminum Alloy"}}</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>{"page": 15, "market_place_id": "EBAY-US", "item_id": "252900220689", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 12, "market_place_id": "EBAY-US", "item_id": "334707355204", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1603,23 +1563,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>235461387733</t>
+          <t>335372891937</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AC A/C Compressor For 2003-2009 Chevrolet Trailblazer GMC Envoy 4.2L CO 4910AC</t>
+          <t>AC A/C Compressor for Jeep Grand Cherokee 1993-1998 4.0L 5.2L High Quality</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>US $108.18</t>
+          <t>US $118.83/ea</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235461387733?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/335372891937?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1645,13 +1605,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>32 sold</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>15 sold</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Buy 1 for $118.83</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Buy 2 for $116.45 each one</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Buy 3 for $115.27 each one</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Buy 4 for $112.89 each one</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>SCITOO</t>
@@ -1666,20 +1642,16 @@
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CO4910AC,25825339, 25825341, 6511418, 77561, 254427</t>
+          <t>55035782, 55066151,CO 22021C</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>CB104TE010S11</t>
+          <t>CB175SCTU907S16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1687,30 +1659,18 @@
           <t>1 Year</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Aluminum Alloy</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>PAG 46</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>10344880, 10349190, 10349191, 1099655, 1099686, 1099716,</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>CO 22021C,55035782, 55066151</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1718,49 +1678,51 @@
           <t>6</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>CO 22021C</t>
+        </is>
+      </c>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>A/C Compressor</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Does not apply</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>611040278818</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr"/>
+          <t>{"0": "https://i.ebayimg.com/images/g/CdYAAOSwPu9mMVPX/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/sk0AAOSwEIZmMVPa/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/BdsAAOSwS4tmMVPc/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/fcAAAOSwjmxmMVPf/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/k6YAAOSwke9mMVPi/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DFoAAOSwKAxmMVPk/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/dMEAAOSw7uZmMVPn/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/335372891937?t=1733395743000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+        </is>
+      </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/sakAAOSwro9l53Xt/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/23cAAOSwbVFl53Xu/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/GP4AAOSw3ctl53Xv/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/jQgAAOSwqtdl53Xw/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/BzAAAOSw1bVl53Xx/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/hEUAAOSwTSJl53Xy/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/n-oAAOSw005l53X0/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "15 sold"}</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/235461387733?t=1728370871000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $118.83", "1": "Buy 2 for $116.45 each one", "2": "Buy 3 for $115.27 each one", "3": "Buy 4 for $112.89 each one"}</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "32 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU907S16"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "55035782, 55066151,CO 22021C"}, "6": {"Superseded Part Number": "CO 22021C"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"Pulley Diameter (mm)": "130"}, "10": {"OE/OEM Part Number": "CO 22021C,55035782, 55066151"}}</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "611040278818"}, "4": {"Manufacturer Part Number": "CB104TE010S11"}, "5": {"Interchange Part Number": "CO4910AC,25825339, 25825341, 6511418, 77561, 254427"}, "6": {"Other Part Number": "10344880, 10349190, 10349191, 1099655, 1099686, 1099716,"}, "7": {"Grooves": "6"}, "8": {"Pulley Diameter (mm)": "106"}, "9": {"Oil Type": "PAG 46"}, "10": {"Type": "A/C Compressor"}, "11": {"Pulley Groove Quantity": "6"}, "12": {"Pulley Diameter": "106"}, "13": {"Material": "Aluminum Alloy"}}</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>{"page": 5, "market_place_id": "EBAY-US", "item_id": "235461387733", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 4, "market_place_id": "EBAY-US", "item_id": "335372891937", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1770,23 +1732,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>235544392154</t>
+          <t>256102649999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AC A/C Compressor for Cadillac SRX 3.6L 2004-2009 New 04 05 06 07 08 09</t>
+          <t>A/C Compressor For 2002-2007 Chrysler Town &amp;amp; Country Dodge Caravan 3.3L 3.8L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>US $110.18/ea</t>
+          <t>US $101.45/ea</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235544392154?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/256102649999?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1812,27 +1774,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4 sold</t>
+          <t>37 sold</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Buy 1 for $110.18</t>
+          <t>Buy 1 for $101.45</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Buy 2 for $107.98 each one</t>
+          <t>Buy 2 for $99.42 each one</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Buy 3 for $106.87 each one</t>
+          <t>Buy 3 for $98.41 each one</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Buy 4 for $104.67 each one</t>
+          <t>Buy 4 for $96.38 each one</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1842,23 +1804,35 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>10S20H</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Direct Replacement</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
         <is>
-          <t>CO 21225C,19130463, 10368632, 89023455</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+          <t>CO 29001C,5005440AA-1,</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1 x Air Conditioner Compressor</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>CB176SCTU013S31</t>
+          <t>CB104TE013S14-1</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1867,20 +1841,16 @@
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>CO 21225C</t>
-        </is>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>10368632, 89023455, 89025025</t>
+          <t>5005440AC-2,5005441-2,5005441AC-2,5005441AD</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>110 mm</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr"/>
@@ -1893,49 +1863,47 @@
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>89025025, 97337, 98337, 471-0713</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr"/>
+          <t>A/C Compressor</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Does not apply</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>A/C Compressor</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>Does not apply</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>{"0": "https://i.ebayimg.com/images/g/io8AAOSwe29kgJ1e/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/MO8AAOSw5phkgJ1g/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/3aUAAOSwl4NkgJ1j/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/n3wAAOSwH8hkgJ1m/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/FIQAAOSwtjVkgJ1p/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/~YcAAOSwDMZkgJ1s/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/dTAAAOSwNLNkgJ1v/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/256102649999?t=1730193933000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+        </is>
+      </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/2ZoAAOSwgzNmMXvj/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/VCsAAOSw3OZmMXvl/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/~BQAAOSwI0JmMXvo/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/nWwAAOSwzldmMXvr/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/UuIAAOSwMWhmMXvt/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/j2EAAOSwtrdmMXvw/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/VJUAAOSwWFVmMXvz/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "37 sold"}</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/235544392154?t=1728370530000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $101.45", "1": "Buy 2 for $99.42 each one", "2": "Buy 3 for $98.41 each one", "3": "Buy 4 for $96.38 each one"}</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "4 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "Does not apply"}, "4": {"Manufacturer Part Number": "CB104TE013S14-1"}, "5": {"Interchange Part Number": "CO 29001C,5005440AA-1,"}, "6": {"Other Part Number": "5005440AC-2,5005441-2,5005441AC-2,5005441AD"}, "7": {"Compressor type": "10S20H"}, "8": {"Voltage": "12V"}, "9": {"Fitment Type": "Direct Replacement"}, "10": {"Type": "A/C Compressor"}, "11": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "12": {"Pulley Groove Quantity": "6"}, "13": {"Pulley Diameter": "130"}}</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $110.18", "1": "Buy 2 for $107.98 each one", "2": "Buy 3 for $106.87 each one", "3": "Buy 4 for $104.67 each one"}</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB176SCTU013S31"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Pulley Diameter": "110 mm"}, "6": {"Interchange Part Number": "CO 21225C,19130463, 10368632, 89023455"}, "7": {"Superseded Part Number": "89025025, 97337, 98337, 471-0713"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Type": "A/C Compressor"}, "10": {"Other Part Number": "10368632, 89023455, 89025025"}, "11": {"OE/OEM Part Number": "CO 21225C"}}</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>{"page": 1, "market_place_id": "EBAY-US", "item_id": "235544392154", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "256102649999", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1945,23 +1913,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>256469386720</t>
+          <t>335057592559</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A/C AC Compressor For 2004-2008 Dodge Ram 1500 2500 3500 4000 5.7L 10S17E 77398</t>
+          <t>AC A/C Compressor for Mazda 3 Mazda 3 Sport Mazda CX-5 2014-2018 2.0L 2.5L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>US $124.92/ea</t>
+          <t>US $110.75/ea</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256469386720?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/335057592559?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1987,27 +1955,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8 sold</t>
+          <t>17 sold</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Buy 1 for $124.92</t>
+          <t>Buy 1 for $110.75</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Buy 2 for $122.42 each one</t>
+          <t>Buy 2 for $108.54 each one</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Buy 3 for $121.17 each one</t>
+          <t>Buy 3 for $107.43 each one</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Buy 4 for $118.67 each one</t>
+          <t>Buy 4 for $105.21 each one</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2023,29 +1991,17 @@
           <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Direct Replacement</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>CO 10802C,C1422,C1422R,10000667,4710398,77398,78398</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>A/C Compressor W/Clutch</t>
-        </is>
-      </c>
+          <t>197384, 198384, KD4561450, KD4561450A</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>SC17757IT004TU</t>
+          <t>CB175SCTU980S25</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2054,75 +2010,69 @@
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Pag 46</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>6001238,6021325,1418N,0610084,22773,6511694,7511694</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>CO 29127C,KD4561450, KD4561450A</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>110 mm</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>252401,275644,TEM252401,TEM275644,638848,1110802,1210802</t>
+          <t>CO 29127C</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2011277R,140132,140132C,140132NC,2011277,2011277AM</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
           <t>A/C Compressor</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Does not apply</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>Does not apply</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr"/>
+          <t>{"0": "https://i.ebayimg.com/images/g/gJ0AAOSwUdZlfxij/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/vPwAAOSwt~hlfxim/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/0AEAAOSwFPplfxip/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/J8YAAOSwC7Flfxis/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/nisAAOSwUNtlfxiv/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/5c0AAOSwioplfxiy/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/hjgAAOSw7cdlfxi1/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/335057592559?t=1731488946000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+        </is>
+      </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/pRcAAOSwf39mD2wj/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/jhgAAOSwI1pmD2wm/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ZFAAAOSwS1JmD2wp/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/6PoAAOSwZsBmD2ws/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/9qgAAOSwIH5mD2wu/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/~eoAAOSwY3RmD2wx/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/7xoAAOSwL0xmD2w0/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "17 sold"}</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/256469386720?t=1728370434000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $110.75", "1": "Buy 2 for $108.54 each one", "2": "Buy 3 for $107.43 each one", "3": "Buy 4 for $105.21 each one"}</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "8 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU980S25"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Pulley Diameter": "110 mm"}, "6": {"Interchange Part Number": "197384, 198384, KD4561450, KD4561450A"}, "7": {"Superseded Part Number": "CO 29127C"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Type": "A/C Compressor"}, "10": {"OE/OEM Part Number": "CO 29127C,KD4561450, KD4561450A"}}</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $124.92", "1": "Buy 2 for $122.42 each one", "2": "Buy 3 for $121.17 each one", "3": "Buy 4 for $118.67 each one"}</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"Manufacturer Part Number": "SC17757IT004TU"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 10802C,C1422,C1422R,10000667,4710398,77398,78398"}, "6": {"Other Part Number": "6001238,6021325,1418N,0610084,22773,6511694,7511694"}, "7": {"Superseded Part Number": "2011277R,140132,140132C,140132NC,2011277,2011277AM"}, "8": {"Reference OE Part Number": "252401,275644,TEM252401,TEM275644,638848,1110802,1210802"}, "9": {"Type": "A/C Compressor"}, "10": {"Oil Type": "Pag 46"}, "11": {"Grooves": "7"}, "12": {"Pulley Diameter (mm)": "130"}, "13": {"Fitment Type": "Direct Replacement"}, "14": {"Kit Parts Included": "A/C Compressor W/Clutch"}}</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>{"page": 11, "market_place_id": "EBAY-US", "item_id": "256469386720", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 9, "market_place_id": "EBAY-US", "item_id": "335057592559", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -2132,23 +2082,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>334348192867</t>
+          <t>256264372483</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AC Compressor For 2000-2003 GMC Isuzu 1998-2003 Chevrolet S10 2.2L  CO 20446C</t>
+          <t>AC A/C Compressor for Toyota Highlander 2009-2013 Toyota Venza 2009-2016 2.7L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>US $101.26/ea</t>
+          <t>US $137.83/ea</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/334348192867?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/256264372483?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2174,27 +2124,27 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>34 sold</t>
+          <t>7 sold</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Buy 1 for $101.26</t>
+          <t>Buy 1 for $137.83</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Buy 2 for $99.23 each one</t>
+          <t>Buy 2 for $135.07 each one</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Buy 3 for $98.22 each one</t>
+          <t>Buy 3 for $133.70 each one</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Buy 4 for $96.20 each one</t>
+          <t>Buy 4 for $130.94 each one</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2206,7 +2156,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>7SEH17C</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2222,17 +2172,13 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>CO 20446C</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>1 x Air Conditioner Compressor</t>
-        </is>
-      </c>
+          <t>CO 20759C, 883100T020, 8831048240, 883100E090, CO20759C</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>CB104TE140S14</t>
+          <t>CB175SCTU977S17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2241,83 +2187,69 @@
         </is>
       </c>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>PAG 150</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>620446,4719178,67291,68291,2010857C,C455R,010332,6511394</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>158368, 157368, 4711019</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>6512816, 7512816, AEG368, 140758C ,815579, 14-0758C,</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1137024, 89018955,1520446,DW67291,10306420</t>
+          <t>A/C Compressor</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Painted</t>
+          <t>Does not apply</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>A/C Compressor</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>688209070194</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/-ewAAOSwL95lfxrV/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/LPwAAOSwAlFlfxrY/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/4akAAOSwGBNlfxrb/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/ee8AAOSw9GBlfxre/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/Oj0AAOSwtO1lfxrh/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/HAIAAOSwa7plfxrk/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>12V</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/256264372483?t=1731488978000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/d60AAOSwJnJj5M12/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/zfUAAOSwj6Zj5M13/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/7iMAAOSw-2lj5M14/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/6xkAAOSwNlRj5M15/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/DdUAAOSwpDJj5M16/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/Pm8AAOSwJv5j5M17/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/25UAAOSwK9Nj5M18/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "7 sold"}</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/334348192867?t=1727354812000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $137.83", "1": "Buy 2 for $135.07 each one", "2": "Buy 3 for $133.70 each one", "3": "Buy 4 for $130.94 each one"}</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "34 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Part Number": "CB175SCTU977S17"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "Does not apply"}, "5": {"Interchange Part Number": "CO 20759C, 883100T020, 8831048240, 883100E090, CO20759C"}, "6": {"Superseded Part Number": "6512816, 7512816, AEG368, 140758C ,815579, 14-0758C,"}, "7": {"Pulley Groove Quantity": "6"}, "8": {"Type": "A/C Compressor"}, "9": {"Voltage": "12V"}, "10": {"Compressor type": "7SEH17C"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"OE/OEM Part Number": "158368, 157368, 4711019"}}</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $101.26", "1": "Buy 2 for $99.23 each one", "2": "Buy 3 for $98.22 each one", "3": "Buy 4 for $96.20 each one"}</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209070194"}, "4": {"Manufacturer Part Number": "CB104TE140S14"}, "5": {"Interchange Part Number": "CO 20446C"}, "6": {"Other Part Number": "620446,4719178,67291,68291,2010857C,C455R,010332,6511394"}, "7": {"Superseded Part Number": "1137024, 89018955,1520446,DW67291,10306420"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Compressor type": "V7"}, "10": {"Pulley Diameter": "125"}, "11": {"Fitment Type": "Direct Replacement"}, "12": {"Type": "A/C Compressor"}, "13": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "14": {"Oil Type": "PAG 150"}, "15": {"Voltage": "12V"}, "16": {"Surface Finish": "Painted"}}</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>{"page": 6, "market_place_id": "EBAY-US", "item_id": "334348192867", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 2, "market_place_id": "EBAY-US", "item_id": "256264372483", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -2327,23 +2259,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>232479816006</t>
+          <t>334041377271</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AC A/C Compressor For 01-10 Chrysler PT Cruiser 2.4L 03-05 Dodge Neon 2.0L 2.4L</t>
+          <t>For Infiniti I30 1997-2001 For Nissan Maxima 1997-2001 3.0L A/C AC Compressor</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>US $100.11/ea</t>
+          <t>US $106.01/ea</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/232479816006?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
+          <t>https://www.ebay.com/itm/334041377271?_ul=US&amp;_stpos=91710&amp;orig_cvip=true</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2369,27 +2301,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>56 sold</t>
+          <t>44 sold</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Buy 1 for $100.11</t>
+          <t>Buy 1 for $106.01</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Buy 2 for $98.11 each one</t>
+          <t>Buy 2 for $103.89 each one</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Buy 3 for $97.11 each one</t>
+          <t>Buy 3 for $102.83 each one</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Buy 4 for $95.10 each one</t>
+          <t>Buy 4 for $100.71 each one</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2398,32 +2330,36 @@
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Nippondenso 10S15C</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>CWV618</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>New other (see details)</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Direct Replacement</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>CO 27001C,5058067AC,5058163,R5058032AC,RL058032AC</t>
+          <t>CO 10552C, 67655, 68655, 68424, 2041173, 5511619</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>A/C Compressor W/Cluth</t>
+          <t>1 x Air Conditioner Compressor</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CB104TE033S10</t>
+          <t>CB104TE070S22</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2431,88 +2367,82 @@
           <t>1 Year</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Aluminum Alloy</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Pag 46</t>
+          <t>PAG 46</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>RL058036AD,RL058163AD,CO 27001C,77387,78387,10345650</t>
+          <t>20-11234-AM,140031NC,926002Y01A, 926002Y01B,</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>639301,67338,68338,77399,78399,2041613,1424,700740</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>“Transaxle: 5Speed Standard-Mfr: Chrysler(A578)- Electric”</t>
-        </is>
-      </c>
+          <t>68424,6511619,6512040,1520851,1521613,926002Y01C</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>RL058032AC,5511514,252403,2011293,145044C,0610119</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+          <t>A/C Compressor</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>688209045635</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>A/C Compressor</t>
+          <t>12V</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>611040242185</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/k7kAAOSwxylj9XjB/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/SooAAOSwEJlj9XjB/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/4z4AAOSwYu1j9XjC/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/cR4AAOSwOh5j9XjC/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>12V</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/334041377271?t=1731488698000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/kgsAAOSwTXRj9sZS/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/hYMAAOSwxzZj9sZS/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/7JwAAOSwTb1j9sZT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/nzoAAOSw-aNj9sZT/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/3EcAAOSwxjlj9sZU/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/DOcAAOSw8NplLtwK/s-l500.jpg"}</t>
+          <t>{"0": "More than 10 available", "1": "44 sold"}</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/232479816006?t=1727349011000&amp;category=33543&amp;seller=scitoo-autoparts&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=100&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>{"0": "Buy 1 for $106.01", "1": "Buy 2 for $103.89 each one", "2": "Buy 3 for $102.83 each one", "3": "Buy 4 for $100.71 each one"}</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>{"0": "More than 10 available", "1": "56 sold"}</t>
+          <t>{"0": {"Condition": "New: A brand-new, unused, unopened, undamaged item in its original packaging (where packaging is applicable). Packaging should be the same as what is found in a retail store, unless the item was packaged by the manufacturer in non-retail packaging, such as an unprinted box or plastic bag. See the seller's listing for full details."}, "1": {"Brand": "SCITOO"}, "2": {"Manufacturer Warranty": "1 Year"}, "3": {"UPC": "688209045635"}, "4": {"Manufacturer Part Number": "CB104TE070S22"}, "5": {"Interchange Part Number": "CO 10552C, 67655, 68655, 68424, 2041173, 5511619"}, "6": {"Other Part Number": "20-11234-AM,140031NC,926002Y01A, 926002Y01B,"}, "7": {"Superseded Part Number": "68424,6511619,6512040,1520851,1521613,926002Y01C"}, "8": {"Pulley Groove Quantity": "6"}, "9": {"Pulley Diameter": "135"}, "10": {"Compressor type": "CWV618"}, "11": {"Voltage": "12V"}, "12": {"Fitment Type": "Direct Replacement"}, "13": {"Type": "A/C Compressor"}, "14": {"Kit Parts Included": "1 x Air Conditioner Compressor"}, "15": {"Oil Type": "PAG 46"}, "16": {"Material": "Aluminum Alloy"}}</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>{"0": "Buy 1 for $100.11", "1": "Buy 2 for $98.11 each one", "2": "Buy 3 for $97.11 each one", "3": "Buy 4 for $95.10 each one"}</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>{"0": {"Condition": "New other (see details)"}, "1": {"Seller Notes": "\u201cTransaxle: 5Speed Standard-Mfr: Chrysler(A578)- Electric\u201d"}, "2": {"Brand": "SCITOO"}, "3": {"Manufacturer Warranty": "1 Year"}, "4": {"UPC": "611040242185"}, "5": {"Manufacturer Part Number": "CB104TE033S10"}, "6": {"Interchange Part Number": "CO 27001C,5058067AC,5058163,R5058032AC,RL058032AC"}, "7": {"Other Part Number": "RL058036AD,RL058163AD,CO 27001C,77387,78387,10345650"}, "8": {"Reference OE Part Number": "639301,67338,68338,77399,78399,2041613,1424,700740"}, "9": {"Superseded Part Number": "RL058032AC,5511514,252403,2011293,145044C,0610119"}, "10": {"Pulley Groove Quantity": "4"}, "11": {"Oil Type": "Pag 46"}, "12": {"Kit Parts Included": "A/C Compressor W/Cluth"}, "13": {"Compressor Type": "Nippondenso 10S15C"}, "14": {"Voltage": "12V"}, "15": {"Pulley Diameter": "130"}, "16": {"Type": "A/C Compressor"}}</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>{"page": 7, "market_place_id": "EBAY-US", "item_id": "232479816006", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
+          <t>{"page": 3, "market_place_id": "EBAY-US", "item_id": "334041377271", "seller_name": "scitoo-autoparts", "category_id": "33543", "api": "https://www.ebay.com/g/api/finders"}</t>
         </is>
       </c>
     </row>
